--- a/SP_Sklad/TempLate/MatOut.xlsx
+++ b/SP_Sklad/TempLate/MatOut.xlsx
@@ -10,11 +10,13 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Лист1!$A$13:$N$14</definedName>
-    <definedName name="sectionPrice">Лист1!$A$11:$N$15</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$N$15</definedName>
+    <definedName name="MatOutDet">Лист1!$A$13:$N$14</definedName>
+    <definedName name="range1">Лист1!#REF!</definedName>
+    <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$10</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -86,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -142,13 +144,6 @@
       <b/>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -564,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -575,10 +570,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -589,21 +580,14 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -618,106 +602,109 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,11 +1076,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:P117"/>
+  <dimension ref="B1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1115,337 +1102,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-    </row>
-    <row r="4" spans="2:16" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="2:16" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="43" t="e">
+      <c r="D4" s="38" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-    </row>
-    <row r="5" spans="2:16" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="2:16" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49" t="e">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-    </row>
-    <row r="6" spans="2:16" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="42" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="2:16" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43" t="e">
+      <c r="D6" s="38" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="2:16" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="2:16" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="43" t="e">
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59" t="s">
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="33" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="60"/>
-    </row>
-    <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="e">
+      <c r="N10" s="56"/>
+    </row>
+    <row r="11" spans="2:16" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-    </row>
-    <row r="13" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="e">
-        <f>MatOutDet_TYPNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13" s="50" t="e">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="33" t="e">
+        <f>MatOutDet_TypeName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C13" s="45" t="e">
         <f>MatOutDet_DOCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="52" t="e">
+      <c r="D13" s="47" t="e">
         <f>MatOutDet_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="62" t="e">
+      <c r="E13" s="61" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="51" t="e">
+      <c r="F13" s="62"/>
+      <c r="G13" s="46" t="e">
         <f>MatOutDet_SHORTNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="32" t="e">
+      <c r="H13" s="27" t="e">
         <f>MatOutDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="35" t="e">
+      <c r="I13" s="30" t="e">
         <f>MatOutDet_SUMM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="36" t="e">
+      <c r="J13" s="31" t="e">
         <f>IF(H13&gt;0,I13/H13," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="32" t="e">
-        <f>MatOutDet_RETURNAMOUNT_IN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L13" s="35" t="e">
-        <f>MatOutDet_RETURNSUMM_IN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M13" s="54" t="e">
+      <c r="K13" s="27" t="e">
+        <f>MatOutDet_ReturnAmountIn</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L13" s="30" t="e">
+        <f>MatOutDet_ReturnSummIn</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M13" s="49" t="e">
         <f>IF(K13&gt;0,L13/K13," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="39" t="e">
+      <c r="N13" s="34" t="e">
         <f>H13-K13</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="53" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="53" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="21" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="63" t="e">
+        <f>SummaryField_Amount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="63" t="e">
+        <f>SummaryField_Summ</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="63" t="e">
+        <f>SummaryField_ReturnAmountIn</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L17" s="63" t="e">
+        <f>SummaryField_ReturnSummIn</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25" t="e">
+        <f>H17-K17</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1460,7 +1464,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1469,13 +1473,13 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+    <row r="20" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1484,7 +1488,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1493,75 +1497,24 @@
       <c r="M21" s="4"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1638,28 +1591,18 @@
     <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B25:G25"/>
+  <mergeCells count="10">
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B12:N12"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/MatOut.xlsx
+++ b/SP_Sklad/TempLate/MatOut.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$N$15</definedName>
-    <definedName name="MatOutDet">Лист1!$A$13:$N$14</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$O$15</definedName>
+    <definedName name="MatOutDet">Лист1!$A$13:$O$14</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$10</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>sum</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Всього, к-сть</t>
+  </si>
+  <si>
+    <t>Відвантажив</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -548,11 +551,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -657,6 +673,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -691,6 +710,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1088,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -1078,34 +1103,36 @@
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-    </row>
-    <row r="2" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+    </row>
+    <row r="2" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1119,8 +1146,9 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1134,8 +1162,9 @@
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="2:16" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:17" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1184,9 @@
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="2:16" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="2:17" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1207,9 @@
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="2:16" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="2:17" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
         <v>8</v>
       </c>
@@ -1188,7 +1219,7 @@
       </c>
       <c r="E6" s="36"/>
     </row>
-    <row r="7" spans="2:16" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
@@ -1199,36 +1230,40 @@
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="I9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="57"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="59"/>
+      <c r="L9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="57"/>
       <c r="M9" s="58"/>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="59"/>
+      <c r="O9" s="60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
@@ -1238,32 +1273,33 @@
       <c r="D10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="K10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="L10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="60"/>
-    </row>
-    <row r="11" spans="2:16" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="O10" s="61"/>
+    </row>
+    <row r="11" spans="2:17" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -1276,27 +1312,29 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="e">
+      <c r="N11" s="17"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
       <c r="N12" s="52"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="e">
         <f>MatOutDet_TypeName</f>
         <v>#NAME?</v>
@@ -1309,45 +1347,49 @@
         <f>MatOutDet_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="53" t="e">
+      <c r="E13" s="54" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="44" t="e">
+      <c r="F13" s="55"/>
+      <c r="G13" s="50" t="e">
+        <f>MatOutDet_PersonName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H13" s="44" t="e">
         <f>MatOutDet_SHORTNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="26" t="e">
+      <c r="I13" s="26" t="e">
         <f>MatOutDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="29" t="e">
+      <c r="J13" s="29" t="e">
         <f>MatOutDet_SUMM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="30" t="e">
-        <f>IF(H13&gt;0,I13/H13," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="26" t="e">
+      <c r="K13" s="30" t="e">
+        <f>IF(I13&gt;0,J13/I13," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L13" s="26" t="e">
         <f>MatOutDet_ReturnAmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="L13" s="29" t="e">
+      <c r="M13" s="29" t="e">
         <f>MatOutDet_ReturnSummIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="47" t="e">
-        <f>IF(K13&gt;0,L13/K13," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N13" s="49" t="e">
-        <f>H13-K13</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="47" t="e">
+        <f>IF(L13&gt;0,M13/L13," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O13" s="49" t="e">
+        <f>I13-L13</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
         <v>1</v>
@@ -1355,56 +1397,59 @@
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="21"/>
+      <c r="L14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21"/>
+      <c r="O14" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="15" t="s">
         <v>2</v>
@@ -1412,61 +1457,64 @@
       <c r="D17" s="15"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="48" t="e">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="48" t="e">
         <f>SummaryField_Amount</f>
         <v>#NAME?</v>
       </c>
-      <c r="I17" s="48" t="e">
+      <c r="J17" s="48" t="e">
         <f>SummaryField_Summ</f>
         <v>#NAME?</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="48" t="e">
+      <c r="K17" s="23"/>
+      <c r="L17" s="48" t="e">
         <f>SummaryField_ReturnAmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="L17" s="48" t="e">
+      <c r="M17" s="48" t="e">
         <f>SummaryField_ReturnSummIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24" t="e">
-        <f>H17-K17</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="23"/>
+      <c r="O17" s="24" t="e">
+        <f>I17-L17</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B12:N12"/>
+  <mergeCells count="10">
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>